--- a/MesAdmin/Template/A1/员工基础信息.xlsx
+++ b/MesAdmin/Template/A1/员工基础信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeskTop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeskTop\A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="424">
   <si>
     <t>姓名</t>
   </si>
@@ -42,34 +42,1298 @@
     <t>出生日期</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>男</t>
   </si>
   <si>
+    <t>默认岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於容</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白班</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>刘一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘二</t>
+    <t>1979-12-08</t>
+  </si>
+  <si>
+    <t>18323424638</t>
+  </si>
+  <si>
+    <t>彭泽线</t>
+  </si>
+  <si>
+    <t>1986-01-12</t>
+  </si>
+  <si>
+    <t>18723194708</t>
+  </si>
+  <si>
+    <t>刘甫纯</t>
+  </si>
+  <si>
+    <t>1973-05-03</t>
+  </si>
+  <si>
+    <t>18375875712</t>
+  </si>
+  <si>
+    <t>张君</t>
+  </si>
+  <si>
+    <t>1986-01-20</t>
+  </si>
+  <si>
+    <t>18523505948</t>
+  </si>
+  <si>
+    <t>岑俊</t>
+  </si>
+  <si>
+    <t>1979-09-15</t>
+  </si>
+  <si>
+    <t>18323849740</t>
+  </si>
+  <si>
+    <t>秦伟</t>
+  </si>
+  <si>
+    <t>2001-08-27</t>
+  </si>
+  <si>
+    <t>15123355877</t>
+  </si>
+  <si>
+    <t>骆礼玉</t>
+  </si>
+  <si>
+    <t>2002-11-06</t>
+  </si>
+  <si>
+    <t>18388390052</t>
+  </si>
+  <si>
+    <t>向正碧</t>
+  </si>
+  <si>
+    <t>1975-06-13</t>
+  </si>
+  <si>
+    <t>13036305771</t>
+  </si>
+  <si>
+    <t>周光群</t>
+  </si>
+  <si>
+    <t>1971-05-05</t>
+  </si>
+  <si>
+    <t>13883969229</t>
+  </si>
+  <si>
+    <t>朱昭会</t>
+  </si>
+  <si>
+    <t>1978-02-03</t>
+  </si>
+  <si>
+    <t>13114053926</t>
+  </si>
+  <si>
+    <t>文中琼</t>
+  </si>
+  <si>
+    <t>1987-06-08</t>
+  </si>
+  <si>
+    <t>13547533260</t>
+  </si>
+  <si>
+    <t>王俊</t>
+  </si>
+  <si>
+    <t>1984-01-15</t>
+  </si>
+  <si>
+    <t>13452176414</t>
+  </si>
+  <si>
+    <t>张胜宇</t>
+  </si>
+  <si>
+    <t>1986-10-22</t>
+  </si>
+  <si>
+    <t>17382275943</t>
+  </si>
+  <si>
+    <t>张燕1</t>
+  </si>
+  <si>
+    <t>1984-08-05</t>
+  </si>
+  <si>
+    <t>13896191967</t>
+  </si>
+  <si>
+    <t>杨艳</t>
+  </si>
+  <si>
+    <t>1982-02-03</t>
+  </si>
+  <si>
+    <t>13452878519</t>
+  </si>
+  <si>
+    <t>黄俊芬</t>
+  </si>
+  <si>
+    <t>1973-03-05</t>
+  </si>
+  <si>
+    <t>15123841398</t>
+  </si>
+  <si>
+    <t>余春花</t>
+  </si>
+  <si>
+    <t>1987-01-31</t>
+  </si>
+  <si>
+    <t>13310272878</t>
+  </si>
+  <si>
+    <t>唐国平</t>
+  </si>
+  <si>
+    <t>1977-09-17</t>
+  </si>
+  <si>
+    <t>蒋林灼</t>
+  </si>
+  <si>
+    <t>2004-10-10</t>
+  </si>
+  <si>
+    <t>15823236408</t>
+  </si>
+  <si>
+    <t>隆兴淑</t>
+  </si>
+  <si>
+    <t>1971-01-24</t>
+  </si>
+  <si>
+    <t>13883723562</t>
+  </si>
+  <si>
+    <t>万青兰</t>
+  </si>
+  <si>
+    <t>1985-01-06</t>
+  </si>
+  <si>
+    <t>15023080871</t>
+  </si>
+  <si>
+    <t>娄义兰1</t>
+  </si>
+  <si>
+    <t>1972-03-01</t>
+  </si>
+  <si>
+    <t>17815024993</t>
+  </si>
+  <si>
+    <t>谭治隆</t>
+  </si>
+  <si>
+    <t>2000-04-26</t>
+  </si>
+  <si>
+    <t>17830295571</t>
+  </si>
+  <si>
+    <t>周娟</t>
+  </si>
+  <si>
+    <t>1992-09-21</t>
+  </si>
+  <si>
+    <t>19923279238</t>
+  </si>
+  <si>
+    <t>吕盛成</t>
+  </si>
+  <si>
+    <t>1993-03-19</t>
+  </si>
+  <si>
+    <t>13252129529</t>
+  </si>
+  <si>
+    <t>刘兵</t>
+  </si>
+  <si>
+    <t>1977-05-27</t>
+  </si>
+  <si>
+    <t>13629793981</t>
+  </si>
+  <si>
+    <t>刘晓琴</t>
+  </si>
+  <si>
+    <t>1989-05-22</t>
+  </si>
+  <si>
+    <t>17764878740</t>
+  </si>
+  <si>
+    <t>岑学会</t>
+  </si>
+  <si>
+    <t>1970-11-25</t>
+  </si>
+  <si>
+    <t>13637805170</t>
+  </si>
+  <si>
+    <t>刘建</t>
+  </si>
+  <si>
+    <t>1972-05-23</t>
+  </si>
+  <si>
+    <t>15111857325</t>
+  </si>
+  <si>
+    <t>雷长劲</t>
+  </si>
+  <si>
+    <t>1990-11-25</t>
+  </si>
+  <si>
+    <t>18883872301</t>
+  </si>
+  <si>
+    <t>王安霞</t>
+  </si>
+  <si>
+    <t>1987-03-05</t>
+  </si>
+  <si>
+    <t>15086745063</t>
+  </si>
+  <si>
+    <t>邓天英</t>
+  </si>
+  <si>
+    <t>1990-05-30</t>
+  </si>
+  <si>
+    <t>19923061622</t>
+  </si>
+  <si>
+    <t>冯丽</t>
+  </si>
+  <si>
+    <t>1984-03-01</t>
+  </si>
+  <si>
+    <t>18382651618</t>
+  </si>
+  <si>
+    <t>钱燕</t>
+  </si>
+  <si>
+    <t>1994-05-07</t>
+  </si>
+  <si>
+    <t>17772321417</t>
+  </si>
+  <si>
+    <t>申艳</t>
+  </si>
+  <si>
+    <t>1978-06-12</t>
+  </si>
+  <si>
+    <t>13761874332</t>
+  </si>
+  <si>
+    <t>肖俊</t>
+  </si>
+  <si>
+    <t>2005-03-13</t>
+  </si>
+  <si>
+    <t>15922883779</t>
+  </si>
+  <si>
+    <t>郑天琼</t>
+  </si>
+  <si>
+    <t>1987-05-20</t>
+  </si>
+  <si>
+    <t>13068290540</t>
+  </si>
+  <si>
+    <t>谭开芬</t>
+  </si>
+  <si>
+    <t>1990-01-02</t>
+  </si>
+  <si>
+    <t>1843581268</t>
+  </si>
+  <si>
+    <t>杨小娟</t>
+  </si>
+  <si>
+    <t>1984-12-01</t>
+  </si>
+  <si>
+    <t>13370706340</t>
+  </si>
+  <si>
+    <t>何艳</t>
+  </si>
+  <si>
+    <t>1985-10-15</t>
+  </si>
+  <si>
+    <t>15123241493</t>
+  </si>
+  <si>
+    <t>伍云秀</t>
+  </si>
+  <si>
+    <t>1978-01-04</t>
+  </si>
+  <si>
+    <t>15123244459</t>
+  </si>
+  <si>
+    <t>藤建菊</t>
+  </si>
+  <si>
+    <t>1978-09-08</t>
+  </si>
+  <si>
+    <t>15823578762</t>
+  </si>
+  <si>
+    <t>但华容</t>
+  </si>
+  <si>
+    <t>470-1</t>
+  </si>
+  <si>
+    <t>1968-05-30</t>
+  </si>
+  <si>
+    <t>15922745121</t>
+  </si>
+  <si>
+    <t>黄林</t>
+  </si>
+  <si>
+    <t>470-2</t>
+  </si>
+  <si>
+    <t>1990-02-08</t>
+  </si>
+  <si>
+    <t>17793600111</t>
+  </si>
+  <si>
+    <t>470-3</t>
+  </si>
+  <si>
+    <t>1990-02-09</t>
+  </si>
+  <si>
+    <t>但海琳</t>
+  </si>
+  <si>
+    <t>机动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘三</t>
+    <t>2001-01-08</t>
+  </si>
+  <si>
+    <t>13388903650</t>
+  </si>
+  <si>
+    <t>龚强</t>
+  </si>
+  <si>
+    <t>1970-05-17</t>
+  </si>
+  <si>
+    <t>15123916966</t>
+  </si>
+  <si>
+    <t>吴兴顺</t>
+  </si>
+  <si>
+    <t>2004-07-23</t>
+  </si>
+  <si>
+    <t>15703083552</t>
+  </si>
+  <si>
+    <t>李春香</t>
+  </si>
+  <si>
+    <t>1976-08-08</t>
+  </si>
+  <si>
+    <t>17723587025</t>
+  </si>
+  <si>
+    <t>张森山</t>
+  </si>
+  <si>
+    <t>1982-11-28</t>
+  </si>
+  <si>
+    <t>13436043393</t>
+  </si>
+  <si>
+    <t>杨民</t>
+  </si>
+  <si>
+    <t>1970-04-04</t>
+  </si>
+  <si>
+    <t>13983004701</t>
+  </si>
+  <si>
+    <t>张利琼</t>
+  </si>
+  <si>
+    <t>1979-02-12</t>
+  </si>
+  <si>
+    <t>15182548959</t>
+  </si>
+  <si>
+    <t>张琪</t>
+  </si>
+  <si>
+    <t>2004-08-18</t>
+  </si>
+  <si>
+    <t>15686791912</t>
+  </si>
+  <si>
+    <t>鲁江英</t>
+  </si>
+  <si>
+    <t>1974-09-22</t>
+  </si>
+  <si>
+    <t>17830043630</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>1970-08-06</t>
+  </si>
+  <si>
+    <t>13808886304</t>
+  </si>
+  <si>
+    <t>赵顺花</t>
+  </si>
+  <si>
+    <t>1973-11-22</t>
+  </si>
+  <si>
+    <t>18587126989</t>
+  </si>
+  <si>
+    <t>莫世林</t>
+  </si>
+  <si>
+    <t>2003-04-06</t>
+  </si>
+  <si>
+    <t>19936059858</t>
+  </si>
+  <si>
+    <t>何建明</t>
+  </si>
+  <si>
+    <t>1995-04-15</t>
+  </si>
+  <si>
+    <t>18523591682</t>
+  </si>
+  <si>
+    <t>尹红梅</t>
+  </si>
+  <si>
+    <t>1987-10-10</t>
+  </si>
+  <si>
+    <t>18084054719</t>
+  </si>
+  <si>
+    <t>郎海燕</t>
+  </si>
+  <si>
+    <t>1991-12-01</t>
+  </si>
+  <si>
+    <t>15213228471</t>
+  </si>
+  <si>
+    <t>赵久洋</t>
+  </si>
+  <si>
+    <t>1993-10-28</t>
+  </si>
+  <si>
+    <t>17823458841</t>
+  </si>
+  <si>
+    <t>张勇</t>
+  </si>
+  <si>
+    <t>1979-10-22</t>
+  </si>
+  <si>
+    <t>15523552558</t>
+  </si>
+  <si>
+    <t>阳以秀</t>
+  </si>
+  <si>
+    <t>1972-09-17</t>
+  </si>
+  <si>
+    <t>15084348019</t>
+  </si>
+  <si>
+    <t>吴煊</t>
+  </si>
+  <si>
+    <t>2002-08-07</t>
+  </si>
+  <si>
+    <t>15673594924</t>
+  </si>
+  <si>
+    <t>范辉琼</t>
+  </si>
+  <si>
+    <t>1977-01-22</t>
+  </si>
+  <si>
+    <t>高久玉</t>
+  </si>
+  <si>
+    <t>1976-08-15</t>
+  </si>
+  <si>
+    <t>15823495557</t>
+  </si>
+  <si>
+    <t>苏德利</t>
+  </si>
+  <si>
+    <t>1976-01-07</t>
+  </si>
+  <si>
+    <t>19112100653</t>
+  </si>
+  <si>
+    <t>周小华</t>
+  </si>
+  <si>
+    <t>1980-02-07</t>
+  </si>
+  <si>
+    <t>13657664180</t>
+  </si>
+  <si>
+    <t>田野</t>
+  </si>
+  <si>
+    <t>2005-05-02</t>
+  </si>
+  <si>
+    <t>18716666287</t>
+  </si>
+  <si>
+    <t>汪华兰</t>
+  </si>
+  <si>
+    <t>1977-06-07</t>
+  </si>
+  <si>
+    <t>13668460864</t>
+  </si>
+  <si>
+    <t>贺茂福</t>
+  </si>
+  <si>
+    <t>1973-11-25</t>
+  </si>
+  <si>
+    <t>15608331028</t>
+  </si>
+  <si>
+    <t>周熹</t>
+  </si>
+  <si>
+    <t>2004-11-25</t>
+  </si>
+  <si>
+    <t>18223015864</t>
+  </si>
+  <si>
+    <t>霍应兵</t>
+  </si>
+  <si>
+    <t>1980-03-24</t>
+  </si>
+  <si>
+    <t>15213019181</t>
+  </si>
+  <si>
+    <t>周玲莉</t>
+  </si>
+  <si>
+    <t>1985-10-29</t>
+  </si>
+  <si>
+    <t>13667610845</t>
+  </si>
+  <si>
+    <t>颜科</t>
+  </si>
+  <si>
+    <t>1999-05-22</t>
+  </si>
+  <si>
+    <t>19131296479</t>
+  </si>
+  <si>
+    <t>何春梅</t>
+  </si>
+  <si>
+    <t>1974-10-16</t>
+  </si>
+  <si>
+    <t>15922702360</t>
+  </si>
+  <si>
+    <t>曾志雄</t>
+  </si>
+  <si>
+    <t>2001-11-08</t>
+  </si>
+  <si>
+    <t>17869462307</t>
+  </si>
+  <si>
+    <t>李东恒</t>
+  </si>
+  <si>
+    <t>2005-06-04</t>
+  </si>
+  <si>
+    <t>15213414023</t>
+  </si>
+  <si>
+    <t>邱波</t>
+  </si>
+  <si>
+    <t>2003-07-25</t>
+  </si>
+  <si>
+    <t>15288364205</t>
+  </si>
+  <si>
+    <t>湛霞</t>
+  </si>
+  <si>
+    <t>1992-01-08</t>
+  </si>
+  <si>
+    <t>18223211855</t>
+  </si>
+  <si>
+    <t>刘小青</t>
+  </si>
+  <si>
+    <t>1992-09-11</t>
+  </si>
+  <si>
+    <t>13368020018</t>
+  </si>
+  <si>
+    <t>饶永</t>
+  </si>
+  <si>
+    <t>1975-05-01</t>
+  </si>
+  <si>
+    <t>18983666481</t>
+  </si>
+  <si>
+    <t>覃泽蓥</t>
+  </si>
+  <si>
+    <t>1995-11-21</t>
+  </si>
+  <si>
+    <t>13048402064</t>
+  </si>
+  <si>
+    <t>肖勇</t>
+  </si>
+  <si>
+    <t>1968-07-04</t>
+  </si>
+  <si>
+    <t>18323198651</t>
+  </si>
+  <si>
+    <t>17783937465</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认岗位</t>
+    <t>倪明祥</t>
+  </si>
+  <si>
+    <t>1972-02-15</t>
+  </si>
+  <si>
+    <t>13036318521</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970-2</t>
+  </si>
+  <si>
+    <t>970-3</t>
+  </si>
+  <si>
+    <t>970-4</t>
+  </si>
+  <si>
+    <t>970-5</t>
+  </si>
+  <si>
+    <t>13212385739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970-6</t>
+  </si>
+  <si>
+    <t>13290013580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970-7</t>
+  </si>
+  <si>
+    <t>18523908654</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>970-8</t>
+  </si>
+  <si>
+    <t>970-9</t>
+  </si>
+  <si>
+    <t>李扬</t>
+  </si>
+  <si>
+    <t>1995-12-20</t>
+  </si>
+  <si>
+    <t>18716623698</t>
+  </si>
+  <si>
+    <t>刘盛容</t>
+  </si>
+  <si>
+    <t>1977-12-09</t>
+  </si>
+  <si>
+    <t>19922829322</t>
+  </si>
+  <si>
+    <t>刘燕</t>
+  </si>
+  <si>
+    <t>1975-12-24</t>
+  </si>
+  <si>
+    <t>罗真秀</t>
+  </si>
+  <si>
+    <t>1989-02-19</t>
+  </si>
+  <si>
+    <t>17623135781</t>
+  </si>
+  <si>
+    <t>曾巧</t>
+  </si>
+  <si>
+    <t>1998-05-04</t>
+  </si>
+  <si>
+    <t>13048436237</t>
+  </si>
+  <si>
+    <t>王诚</t>
+  </si>
+  <si>
+    <t>1974-11-11</t>
+  </si>
+  <si>
+    <t>15200230749</t>
+  </si>
+  <si>
+    <t>陈治芳</t>
+  </si>
+  <si>
+    <t>1971-11-12</t>
+  </si>
+  <si>
+    <t>刘艳</t>
+  </si>
+  <si>
+    <t>1995-08-06</t>
+  </si>
+  <si>
+    <t>17764878470</t>
+  </si>
+  <si>
+    <t>夏露</t>
+  </si>
+  <si>
+    <t>1999-02-20</t>
+  </si>
+  <si>
+    <t>15123171043</t>
+  </si>
+  <si>
+    <t>齐登英</t>
+  </si>
+  <si>
+    <t>1974-01-24</t>
+  </si>
+  <si>
+    <t>18426498725</t>
+  </si>
+  <si>
+    <t>蓝文珍</t>
+  </si>
+  <si>
+    <t>1972-07-25</t>
+  </si>
+  <si>
+    <t>18290483472</t>
+  </si>
+  <si>
+    <t>谭庭会</t>
+  </si>
+  <si>
+    <t>1975-03-05</t>
+  </si>
+  <si>
+    <t>17323964112</t>
+  </si>
+  <si>
+    <t>吴相红</t>
+  </si>
+  <si>
+    <t>1987-07-01</t>
+  </si>
+  <si>
+    <t>17382394094</t>
+  </si>
+  <si>
+    <t>邱武娟</t>
+  </si>
+  <si>
+    <t>1984-07-09</t>
+  </si>
+  <si>
+    <t>15823990709</t>
+  </si>
+  <si>
+    <t>王雨</t>
+  </si>
+  <si>
+    <t>1995-01-01</t>
+  </si>
+  <si>
+    <t>18716410450</t>
+  </si>
+  <si>
+    <t>朱自勋</t>
+  </si>
+  <si>
+    <t>1974-09-01</t>
+  </si>
+  <si>
+    <t>15223105584</t>
+  </si>
+  <si>
+    <t>李忠兰</t>
+  </si>
+  <si>
+    <t>1989-09-13</t>
+  </si>
+  <si>
+    <t>15023150612</t>
+  </si>
+  <si>
+    <t>喻虹</t>
+  </si>
+  <si>
+    <t>18996287329</t>
+  </si>
+  <si>
+    <t>刘珍奎</t>
+  </si>
+  <si>
+    <t>1964-07-29</t>
+  </si>
+  <si>
+    <t>19922819904</t>
+  </si>
+  <si>
+    <t>姜玖余</t>
+  </si>
+  <si>
+    <t>1965-09-21</t>
+  </si>
+  <si>
+    <t>15902313129</t>
+  </si>
+  <si>
+    <t>尧荣华</t>
+  </si>
+  <si>
+    <t>1973-12-30</t>
+  </si>
+  <si>
+    <t>19522000384</t>
+  </si>
+  <si>
+    <t>姜义全</t>
+  </si>
+  <si>
+    <t>1966-09-10</t>
+  </si>
+  <si>
+    <t>13896155065</t>
+  </si>
+  <si>
+    <t>戚跃友</t>
+  </si>
+  <si>
+    <t>1966-08-23</t>
+  </si>
+  <si>
+    <t>15826174687</t>
+  </si>
+  <si>
+    <t>石顺洪</t>
+  </si>
+  <si>
+    <t>1964-09-20</t>
+  </si>
+  <si>
+    <t>13535264221</t>
+  </si>
+  <si>
+    <t>易朝海</t>
+  </si>
+  <si>
+    <t>1968-08-08</t>
+  </si>
+  <si>
+    <t>13883479867</t>
+  </si>
+  <si>
+    <t>曾庆云</t>
+  </si>
+  <si>
+    <t>物料员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1965-11-12</t>
+  </si>
+  <si>
+    <t>13728842357</t>
+  </si>
+  <si>
+    <t>陈宗全</t>
+  </si>
+  <si>
+    <t>1971-10-21</t>
+  </si>
+  <si>
+    <t>15696230961</t>
+  </si>
+  <si>
+    <t>李丹</t>
+  </si>
+  <si>
+    <t>1980-11-06</t>
+  </si>
+  <si>
+    <t>18580036756</t>
+  </si>
+  <si>
+    <t>李婷</t>
+  </si>
+  <si>
+    <t>领料员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1986-03-24</t>
+  </si>
+  <si>
+    <t>15086720746</t>
+  </si>
+  <si>
+    <t>廖友兴</t>
+  </si>
+  <si>
+    <t>1963-02-05</t>
+  </si>
+  <si>
+    <t>13533780552</t>
+  </si>
+  <si>
+    <t>毛小利</t>
+  </si>
+  <si>
+    <t>1981-09-26</t>
+  </si>
+  <si>
+    <t>彭海军</t>
+  </si>
+  <si>
+    <t>1979-10-28</t>
+  </si>
+  <si>
+    <t>15984833546</t>
+  </si>
+  <si>
+    <t>屈洪均</t>
+  </si>
+  <si>
+    <t>线长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1989-06-17</t>
+  </si>
+  <si>
+    <t>15922993637</t>
+  </si>
+  <si>
+    <t>沈定亮</t>
+  </si>
+  <si>
+    <t>1966-04-29</t>
+  </si>
+  <si>
+    <t>王煜</t>
+  </si>
+  <si>
+    <t>1995-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18725689594 </t>
+  </si>
+  <si>
+    <t>赵文彦</t>
+  </si>
+  <si>
+    <t>1993-08-18</t>
+  </si>
+  <si>
+    <t>17764897055</t>
+  </si>
+  <si>
+    <t>唐中林</t>
+  </si>
+  <si>
+    <t>2000-06-29</t>
+  </si>
+  <si>
+    <t>13678240477</t>
+  </si>
+  <si>
+    <t>杨国强</t>
+  </si>
+  <si>
+    <t>1995-09-27</t>
+  </si>
+  <si>
+    <t>18983291980</t>
+  </si>
+  <si>
+    <t>郑明兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜云川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张小波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈剑华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜光明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万小勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴建平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅玉明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周中伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑大平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19936196423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15923927650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13436151266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15086860602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18680890281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13193041164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1983-11-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1973-06-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +1341,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,8 +1359,64 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +1429,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,20 +1456,2026 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="195">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -463,10 +3810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H2" sqref="H2:H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -485,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -507,61 +3854,3583 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5">
+        <v>43920</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44609</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="5">
+        <v>42067</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42794</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43155</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>44462</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44446</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42773</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43396</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
+        <v>42842</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43916</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
+        <v>44433</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
+        <v>44607</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4">
+        <v>110</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
+        <v>42800</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5">
+        <v>41699</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5">
+        <v>40508</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4">
+        <v>150</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5">
+        <v>44484</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4">
+        <v>160</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9">
+        <v>13399830037</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G19" s="5">
+        <v>42775</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="4">
+        <v>170</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5">
+        <v>44553</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4">
+        <v>180</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5">
+        <v>44249</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4">
+        <v>180</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="5">
+        <v>41472</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4">
+        <v>190</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="4">
+        <v>200</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44257</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4">
+        <v>210</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5">
+        <v>44609</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="4">
+        <v>230</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44257</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="4">
+        <v>240</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5">
+        <v>43516</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="4">
+        <v>250</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5">
+        <v>43696</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="4">
+        <v>260</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G29" s="5">
+        <v>44249</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="4">
+        <v>290</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G30" s="5">
+        <v>41525</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="4">
+        <v>310</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G31" s="5">
+        <v>43918</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="4">
+        <v>320</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5">
+        <v>44369</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="4">
+        <v>340</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="4">
+        <v>350</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5">
+        <v>43920</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="4">
+        <v>360</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G35" s="5">
+        <v>44287</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="4">
+        <v>370</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5">
+        <v>43941</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="4">
+        <v>380</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5">
+        <v>44553</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="4">
+        <v>400</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5">
+        <v>43388</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="4">
+        <v>410</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G39" s="5">
+        <v>43987</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="4">
+        <v>420</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G40" s="5">
+        <v>43509</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="4">
+        <v>430</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G41" s="5">
+        <v>43102</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="4">
+        <v>440</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G42" s="5">
+        <v>44662</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="4">
+        <v>450</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5">
+        <v>41376</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5">
+        <v>41458</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G45" s="5">
+        <v>44438</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46" s="5">
+        <v>44439</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5">
+        <v>43641</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="4">
+        <v>480</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5">
+        <v>41982</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="4">
+        <v>490</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5">
+        <v>44553</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="4">
+        <v>510</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" s="5">
+        <v>44440</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="4">
+        <v>540</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" s="5">
+        <v>39548</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="4">
+        <v>550</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5">
+        <v>39609</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="4">
+        <v>550</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" s="5">
+        <v>42770</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="4">
+        <v>560</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5">
+        <v>44620</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="4">
+        <v>570</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5">
+        <v>43901</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="4">
+        <v>580</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5">
+        <v>44440</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="4">
+        <v>590</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5">
+        <v>43550</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="4">
+        <v>600</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5">
+        <v>44462</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="4">
+        <v>610</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" s="5">
+        <v>44609</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="4">
+        <v>620</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G60" s="5">
+        <v>44581</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="4">
+        <v>630</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5">
+        <v>44375</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="4">
+        <v>640</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5">
+        <v>44609</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="4">
+        <v>670</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G63" s="5">
+        <v>43080</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="4">
+        <v>680</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G64" s="5">
+        <v>43931</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="4">
+        <v>720</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G65" s="5">
+        <v>44257</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="4">
+        <v>730</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E66" s="6">
+        <v>13158488071</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G66" s="5">
+        <v>43920</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="4">
+        <v>740</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G67" s="5">
+        <v>42671</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="4">
+        <v>760</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5">
+        <v>44480</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="4">
+        <v>760</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5">
+        <v>44494</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" s="4">
+        <v>770</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G70" s="5">
+        <v>44718</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="4">
+        <v>780</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G71" s="5">
+        <v>44606</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="4">
+        <v>790</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G72" s="5">
+        <v>44606</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="4">
+        <v>800</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5">
+        <v>44553</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="4">
+        <v>810</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G74" s="5">
+        <v>44265</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="4">
+        <v>820</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G75" s="5">
+        <v>43122</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="4">
+        <v>830</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5">
+        <v>44697</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="4">
+        <v>840</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5">
+        <v>37148</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="4">
+        <v>870</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5">
+        <v>44446</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" s="4">
+        <v>880</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5">
+        <v>44553</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="4">
+        <v>890</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G80" s="5">
+        <v>44446</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="4">
+        <v>900</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G81" s="5">
+        <v>44509</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="4">
+        <v>910</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5">
+        <v>44602</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="4">
+        <v>910</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5">
+        <v>43896</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="4">
+        <v>910</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G84" s="5">
+        <v>43522</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="4">
+        <v>940</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5">
+        <v>41717</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B86" s="4">
+        <v>950</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="5">
+        <v>44646</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B87" s="4">
+        <v>960</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5">
+        <v>44201</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="22">
+        <v>35941</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="22">
+        <v>44327</v>
+      </c>
+      <c r="H89" s="22">
+        <v>34238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="22">
+        <v>41585</v>
+      </c>
+      <c r="H90" s="22">
+        <v>28651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="G91" s="22">
+        <v>43899</v>
+      </c>
+      <c r="H91" s="22">
+        <v>31361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="22">
+        <v>44295</v>
+      </c>
+      <c r="H92" s="22">
+        <v>35342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="G93" s="22">
+        <v>43902</v>
+      </c>
+      <c r="H93" s="22">
+        <v>29884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="22">
+        <v>38414</v>
+      </c>
+      <c r="H94" s="22">
+        <v>25079</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="22">
+        <v>41039</v>
+      </c>
+      <c r="H95" s="22">
+        <v>28425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="22">
+        <v>41396</v>
+      </c>
+      <c r="H96" s="22">
+        <v>27421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97" s="4">
+        <v>980</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="5">
+        <v>41766</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G98" s="5">
+        <v>44287</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E99" s="6">
+        <v>13638208064</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="5">
+        <v>43959</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="5">
+        <v>44566</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G101" s="5">
+        <v>44608</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="5">
+        <v>43900</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="8">
+        <v>13996044367</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="5">
+        <v>42188</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G104" s="5">
+        <v>44018</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="5">
+        <v>44659</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1070</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="5">
+        <v>43301</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1110</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="5">
+        <v>43899</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1110</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="5">
+        <v>43333</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1110</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G109" s="5">
+        <v>44250</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1120</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="5">
+        <v>44630</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1130</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="5">
+        <v>44602</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1140</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="5">
+        <v>41682</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1150</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G113" s="5">
+        <v>44309</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1170</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="5">
+        <v>43907</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1180</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="5">
+        <v>44247</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1190</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G116" s="5">
+        <v>41330</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1190</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="5">
+        <v>44490</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="5">
+        <v>44664</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="5">
+        <v>41797</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="5">
+        <v>44452</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G122" s="5">
+        <v>44215</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" s="4">
+        <v>750</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="5">
+        <v>44354</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G124" s="5">
+        <v>42158</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G125" s="5">
+        <v>43920</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="5">
+        <v>44233</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E127" s="8">
+        <v>13648333937</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="5">
+        <v>40696</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G128" s="5">
+        <v>42063</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="5">
+        <v>39709</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E130" s="9">
+        <v>15123899648</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G130" s="5">
+        <v>38947</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G131" s="5">
+        <v>41239</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G132" s="5">
+        <v>43926</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G133" s="5">
+        <v>42802</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G134" s="5">
+        <v>41222</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="129" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A24 A7:A21 A2:A5">
+    <cfRule type="duplicateValues" dxfId="103" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A27 A7:A21 A2:A5">
+    <cfRule type="duplicateValues" dxfId="97" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A36 A7:A21 A2:A5">
+    <cfRule type="duplicateValues" dxfId="95" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A54 A2:A5">
+    <cfRule type="duplicateValues" dxfId="91" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A96 A2:A5">
+    <cfRule type="duplicateValues" dxfId="89" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A110 A2:A5">
+    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A19 A2:A5">
+    <cfRule type="duplicateValues" dxfId="85" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A72 A2:A5">
+    <cfRule type="duplicateValues" dxfId="81" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A108 A2:A5">
+    <cfRule type="duplicateValues" dxfId="79" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="77" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:A21">
+    <cfRule type="duplicateValues" dxfId="75" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="71" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="57" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="55" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A26">
+    <cfRule type="duplicateValues" dxfId="53" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A27">
+    <cfRule type="duplicateValues" dxfId="51" priority="26" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:A29">
+    <cfRule type="duplicateValues" dxfId="49" priority="24" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="45" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111:A113">
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114:A115">
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:A117">
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119:A120">
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:A124">
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126:A127">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128:A130">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133:A134">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 B4:F4 B2:F2 B3:F3 C1:H1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1 C1:H1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>